--- a/Conclusion Assignment 5/Observation 5 excel.xlsx
+++ b/Conclusion Assignment 5/Observation 5 excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyalgudhka/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyalgudhka/PSA5/INFO6205/Conclusion Assignment 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD97D6F-B998-6048-9B85-114FEF9313A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C773C9-2770-4949-91E4-749AEC949D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{8B134B98-9BE9-AD47-8E75-FF0654A59983}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{8B134B98-9BE9-AD47-8E75-FF0654A59983}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Thread Count 1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Length of array that needs to be sorted is :2000000</t>
   </si>
   <si>
-    <t>Length of array that needs to be sorted is :4000000</t>
-  </si>
-  <si>
     <t>Length of array that needs to be sorted is :8000000</t>
   </si>
   <si>
@@ -75,781 +72,16 @@
     <t>Process finished with exit code 0</t>
   </si>
   <si>
-    <t>1257ms</t>
-  </si>
-  <si>
-    <t>2612ms</t>
-  </si>
-  <si>
-    <t>2801ms</t>
-  </si>
-  <si>
-    <t>1438ms</t>
-  </si>
-  <si>
-    <t>1594ms</t>
-  </si>
-  <si>
-    <t>1731ms</t>
-  </si>
-  <si>
-    <t>1254ms</t>
-  </si>
-  <si>
-    <t>1253ms</t>
-  </si>
-  <si>
-    <t>1249ms</t>
-  </si>
-  <si>
-    <t>1119ms</t>
-  </si>
-  <si>
-    <t>1120ms</t>
-  </si>
-  <si>
-    <t>1255ms</t>
-  </si>
-  <si>
-    <t>1245ms</t>
-  </si>
-  <si>
-    <t>1716ms</t>
-  </si>
-  <si>
-    <t>1723ms</t>
-  </si>
-  <si>
-    <t>1246ms</t>
-  </si>
-  <si>
-    <t>1757ms</t>
-  </si>
-  <si>
-    <t>1736ms</t>
-  </si>
-  <si>
-    <t>1725ms</t>
-  </si>
-  <si>
-    <t>3555ms</t>
-  </si>
-  <si>
-    <t>3567ms</t>
-  </si>
-  <si>
-    <t>7151ms</t>
-  </si>
-  <si>
-    <t>7620ms</t>
-  </si>
-  <si>
-    <t>7433ms</t>
-  </si>
-  <si>
-    <t>1732ms</t>
-  </si>
-  <si>
-    <t>1299ms</t>
-  </si>
-  <si>
-    <t>3617ms</t>
-  </si>
-  <si>
-    <t>3737ms</t>
-  </si>
-  <si>
-    <t>7559ms</t>
-  </si>
-  <si>
-    <t>7545ms</t>
-  </si>
-  <si>
-    <t>7570ms</t>
-  </si>
-  <si>
-    <t>1702ms</t>
-  </si>
-  <si>
-    <t>2040ms</t>
-  </si>
-  <si>
-    <t>2025ms</t>
-  </si>
-  <si>
-    <t>2048ms</t>
-  </si>
-  <si>
-    <t>2555ms</t>
-  </si>
-  <si>
-    <t>2717ms</t>
-  </si>
-  <si>
-    <t>2658ms</t>
-  </si>
-  <si>
-    <t>2590ms</t>
-  </si>
-  <si>
-    <t>2617ms</t>
-  </si>
-  <si>
-    <t>2825ms</t>
-  </si>
-  <si>
-    <t>2814ms</t>
-  </si>
-  <si>
-    <t>2797ms</t>
-  </si>
-  <si>
-    <t>2798ms</t>
-  </si>
-  <si>
-    <t>2794ms</t>
-  </si>
-  <si>
-    <t>2806ms</t>
-  </si>
-  <si>
-    <t>2824ms</t>
-  </si>
-  <si>
-    <t>2789ms</t>
-  </si>
-  <si>
-    <t>1647ms</t>
-  </si>
-  <si>
-    <t>1584ms</t>
-  </si>
-  <si>
-    <t>1643ms</t>
-  </si>
-  <si>
-    <t>1607ms</t>
-  </si>
-  <si>
-    <t>1799ms</t>
-  </si>
-  <si>
-    <t>1800ms</t>
-  </si>
-  <si>
-    <t>1786ms</t>
-  </si>
-  <si>
-    <t>1784ms</t>
-  </si>
-  <si>
-    <t>1824ms</t>
-  </si>
-  <si>
-    <t>1722ms</t>
-  </si>
-  <si>
-    <t>1720ms</t>
-  </si>
-  <si>
-    <t>1713ms</t>
-  </si>
-  <si>
-    <t>1724ms</t>
-  </si>
-  <si>
-    <t>1721ms</t>
-  </si>
-  <si>
-    <t>1718ms</t>
-  </si>
-  <si>
-    <t>1506ms</t>
-  </si>
-  <si>
-    <t>1312ms</t>
-  </si>
-  <si>
-    <t>1298ms</t>
-  </si>
-  <si>
-    <t>1248ms</t>
-  </si>
-  <si>
-    <t>1742ms</t>
-  </si>
-  <si>
-    <t>1865ms</t>
-  </si>
-  <si>
-    <t>1730ms</t>
-  </si>
-  <si>
-    <t>1575ms</t>
-  </si>
-  <si>
-    <t>1150ms</t>
-  </si>
-  <si>
-    <t>1125ms</t>
-  </si>
-  <si>
-    <t>1133ms</t>
-  </si>
-  <si>
-    <t>1874ms</t>
-  </si>
-  <si>
-    <t>1726ms</t>
-  </si>
-  <si>
-    <t>1734ms</t>
-  </si>
-  <si>
-    <t>1715ms</t>
-  </si>
-  <si>
-    <t>1515ms</t>
-  </si>
-  <si>
-    <t>1174ms</t>
-  </si>
-  <si>
-    <t>1111ms</t>
-  </si>
-  <si>
-    <t>1281ms</t>
-  </si>
-  <si>
-    <t>1256ms</t>
-  </si>
-  <si>
-    <t>1711ms</t>
-  </si>
-  <si>
-    <t>1719ms</t>
-  </si>
-  <si>
-    <t>1728ms</t>
-  </si>
-  <si>
-    <t>3354ms</t>
-  </si>
-  <si>
-    <t>3303ms</t>
-  </si>
-  <si>
-    <t>4283ms</t>
-  </si>
-  <si>
-    <t>4136ms</t>
-  </si>
-  <si>
-    <t>4210ms</t>
-  </si>
-  <si>
-    <t>5408ms</t>
-  </si>
-  <si>
-    <t>5318ms</t>
-  </si>
-  <si>
-    <t>5422ms</t>
-  </si>
-  <si>
-    <t>5522ms</t>
-  </si>
-  <si>
-    <t>4989ms</t>
-  </si>
-  <si>
-    <t>5865ms</t>
-  </si>
-  <si>
-    <t>5821ms</t>
-  </si>
-  <si>
-    <t>5820ms</t>
-  </si>
-  <si>
-    <t>5809ms</t>
-  </si>
-  <si>
-    <t>5811ms</t>
-  </si>
-  <si>
-    <t>5846ms</t>
-  </si>
-  <si>
-    <t>5813ms</t>
-  </si>
-  <si>
-    <t>5803ms</t>
-  </si>
-  <si>
-    <t>3268ms</t>
-  </si>
-  <si>
-    <t>2940ms</t>
-  </si>
-  <si>
-    <t>3265ms</t>
-  </si>
-  <si>
-    <t>3245ms</t>
-  </si>
-  <si>
-    <t>3344ms</t>
-  </si>
-  <si>
-    <t>3742ms</t>
-  </si>
-  <si>
-    <t>3699ms</t>
-  </si>
-  <si>
-    <t>3755ms</t>
-  </si>
-  <si>
-    <t>3745ms</t>
-  </si>
-  <si>
-    <t>3558ms</t>
-  </si>
-  <si>
-    <t>3550ms</t>
-  </si>
-  <si>
-    <t>3545ms</t>
-  </si>
-  <si>
-    <t>3549ms</t>
-  </si>
-  <si>
-    <t>3551ms</t>
-  </si>
-  <si>
-    <t>3532ms</t>
-  </si>
-  <si>
-    <t>3554ms</t>
-  </si>
-  <si>
-    <t>3557ms</t>
-  </si>
-  <si>
-    <t>3540ms</t>
-  </si>
-  <si>
-    <t>3504ms</t>
-  </si>
-  <si>
-    <t>2693ms</t>
-  </si>
-  <si>
-    <t>2692ms</t>
-  </si>
-  <si>
-    <t>2699ms</t>
-  </si>
-  <si>
-    <t>2559ms</t>
-  </si>
-  <si>
-    <t>2554ms</t>
-  </si>
-  <si>
-    <t>2557ms</t>
-  </si>
-  <si>
-    <t>3544ms</t>
-  </si>
-  <si>
-    <t>3564ms</t>
-  </si>
-  <si>
-    <t>3530ms</t>
-  </si>
-  <si>
-    <t>3552ms</t>
-  </si>
-  <si>
-    <t>3566ms</t>
-  </si>
-  <si>
-    <t>3563ms</t>
-  </si>
-  <si>
-    <t>3033ms</t>
-  </si>
-  <si>
-    <t>2354ms</t>
-  </si>
-  <si>
-    <t>2259ms</t>
-  </si>
-  <si>
-    <t>2247ms</t>
-  </si>
-  <si>
-    <t>2895ms</t>
-  </si>
-  <si>
-    <t>4015ms</t>
-  </si>
-  <si>
-    <t>27471ms</t>
-  </si>
-  <si>
-    <t>3591ms</t>
-  </si>
-  <si>
-    <t>3207ms</t>
-  </si>
-  <si>
-    <t>3020ms</t>
-  </si>
-  <si>
-    <t>4625ms</t>
-  </si>
-  <si>
-    <t>4117ms</t>
-  </si>
-  <si>
-    <t>3542ms</t>
-  </si>
-  <si>
-    <t>3553ms</t>
-  </si>
-  <si>
-    <t>3543ms</t>
-  </si>
-  <si>
-    <t>3091ms</t>
-  </si>
-  <si>
-    <t>2461ms</t>
-  </si>
-  <si>
-    <t>2308ms</t>
-  </si>
-  <si>
-    <t>2335ms</t>
-  </si>
-  <si>
-    <t>2320ms</t>
-  </si>
-  <si>
-    <t>2572ms</t>
-  </si>
-  <si>
-    <t>2560ms</t>
-  </si>
-  <si>
-    <t>2553ms</t>
-  </si>
-  <si>
-    <t>3547ms</t>
-  </si>
-  <si>
-    <t>3585ms</t>
-  </si>
-  <si>
-    <t>3569ms</t>
-  </si>
-  <si>
-    <t>3593ms</t>
-  </si>
-  <si>
-    <t>3573ms</t>
-  </si>
-  <si>
-    <t>3548ms</t>
-  </si>
-  <si>
-    <t>6752ms</t>
-  </si>
-  <si>
-    <t>6854ms</t>
-  </si>
-  <si>
-    <t>8714ms</t>
-  </si>
-  <si>
-    <t>8607ms</t>
-  </si>
-  <si>
-    <t>8701ms</t>
-  </si>
-  <si>
-    <t>11533ms</t>
-  </si>
-  <si>
-    <t>11729ms</t>
-  </si>
-  <si>
-    <t>11758ms</t>
-  </si>
-  <si>
-    <t>11256ms</t>
-  </si>
-  <si>
-    <t>11116ms</t>
-  </si>
-  <si>
-    <t>12374ms</t>
-  </si>
-  <si>
-    <t>12204ms</t>
-  </si>
-  <si>
-    <t>12546ms</t>
-  </si>
-  <si>
-    <t>12482ms</t>
-  </si>
-  <si>
-    <t>12359ms</t>
-  </si>
-  <si>
-    <t>12357ms</t>
-  </si>
-  <si>
-    <t>12175ms</t>
-  </si>
-  <si>
-    <t>12460ms</t>
-  </si>
-  <si>
-    <t>12140ms</t>
-  </si>
-  <si>
-    <t>12234ms</t>
-  </si>
-  <si>
-    <t>6000ms</t>
-  </si>
-  <si>
-    <t>6891ms</t>
-  </si>
-  <si>
-    <t>6701ms</t>
-  </si>
-  <si>
-    <t>6769ms</t>
-  </si>
-  <si>
-    <t>7710ms</t>
-  </si>
-  <si>
-    <t>7576ms</t>
-  </si>
-  <si>
-    <t>7655ms</t>
-  </si>
-  <si>
-    <t>7614ms</t>
-  </si>
-  <si>
-    <t>7602ms</t>
-  </si>
-  <si>
-    <t>7415ms</t>
-  </si>
-  <si>
-    <t>7339ms</t>
-  </si>
-  <si>
-    <t>7485ms</t>
-  </si>
-  <si>
-    <t>7432ms</t>
-  </si>
-  <si>
-    <t>7348ms</t>
-  </si>
-  <si>
-    <t>7428ms</t>
-  </si>
-  <si>
-    <t>7476ms</t>
-  </si>
-  <si>
-    <t>7323ms</t>
-  </si>
-  <si>
-    <t>7899ms</t>
-  </si>
-  <si>
-    <t>6039ms</t>
-  </si>
-  <si>
-    <t>5200ms</t>
-  </si>
-  <si>
-    <t>5734ms</t>
-  </si>
-  <si>
-    <t>5514ms</t>
-  </si>
-  <si>
-    <t>5517ms</t>
-  </si>
-  <si>
-    <t>5213ms</t>
-  </si>
-  <si>
-    <t>5238ms</t>
-  </si>
-  <si>
-    <t>5226ms</t>
-  </si>
-  <si>
-    <t>5259ms</t>
-  </si>
-  <si>
-    <t>5236ms</t>
-  </si>
-  <si>
-    <t>7479ms</t>
-  </si>
-  <si>
-    <t>7529ms</t>
-  </si>
-  <si>
-    <t>7347ms</t>
-  </si>
-  <si>
-    <t>7507ms</t>
-  </si>
-  <si>
-    <t>7474ms</t>
-  </si>
-  <si>
-    <t>7320ms</t>
-  </si>
-  <si>
-    <t>7713ms</t>
-  </si>
-  <si>
-    <t>7903ms</t>
-  </si>
-  <si>
-    <t>6001ms</t>
-  </si>
-  <si>
-    <t>4799ms</t>
-  </si>
-  <si>
-    <t>4542ms</t>
-  </si>
-  <si>
-    <t>4617ms</t>
-  </si>
-  <si>
-    <t>4659ms</t>
-  </si>
-  <si>
-    <t>5366ms</t>
-  </si>
-  <si>
-    <t>5261ms</t>
-  </si>
-  <si>
-    <t>5260ms</t>
-  </si>
-  <si>
-    <t>5348ms</t>
-  </si>
-  <si>
-    <t>5266ms</t>
-  </si>
-  <si>
-    <t>7527ms</t>
-  </si>
-  <si>
-    <t>7519ms</t>
-  </si>
-  <si>
-    <t>7817ms</t>
-  </si>
-  <si>
-    <t>7727ms</t>
-  </si>
-  <si>
-    <t>7426ms</t>
-  </si>
-  <si>
-    <t>7660ms</t>
-  </si>
-  <si>
-    <t>10517ms</t>
-  </si>
-  <si>
-    <t>10144ms</t>
-  </si>
-  <si>
-    <t>7951ms</t>
-  </si>
-  <si>
-    <t>6078ms</t>
-  </si>
-  <si>
-    <t>5048ms</t>
-  </si>
-  <si>
-    <t>4773ms</t>
-  </si>
-  <si>
-    <t>4641ms</t>
-  </si>
-  <si>
-    <t>4635ms</t>
-  </si>
-  <si>
-    <t>5380ms</t>
-  </si>
-  <si>
-    <t>5342ms</t>
-  </si>
-  <si>
-    <t>5545ms</t>
-  </si>
-  <si>
-    <t>5523ms</t>
-  </si>
-  <si>
-    <t>5364ms</t>
-  </si>
-  <si>
-    <t>7528ms</t>
-  </si>
-  <si>
-    <t>7609ms</t>
-  </si>
-  <si>
-    <t>7363ms</t>
-  </si>
-  <si>
-    <t>7284ms</t>
-  </si>
-  <si>
-    <t>7571ms</t>
-  </si>
-  <si>
-    <t>7626ms</t>
-  </si>
-  <si>
-    <t>7506ms</t>
-  </si>
-  <si>
     <t>Cut-Off Value</t>
   </si>
   <si>
     <t>Array Length of 1000000</t>
   </si>
   <si>
-    <t>Array Length of 2000000</t>
+    <t>Array Length of 4000000</t>
+  </si>
+  <si>
+    <t>Array Length of 8000000</t>
   </si>
 </sst>
 </file>
@@ -1055,15 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,6 +309,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,35 +440,146 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>Sheet5!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DDF-1049-B27E-6905394AD654}"/>
             </c:ext>
@@ -1272,35 +615,146 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>Sheet5!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8DDF-1049-B27E-6905394AD654}"/>
             </c:ext>
@@ -1336,35 +790,146 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>Sheet5!$D$4:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8DDF-1049-B27E-6905394AD654}"/>
             </c:ext>
@@ -1400,35 +965,146 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>Sheet5!$E$4:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8DDF-1049-B27E-6905394AD654}"/>
             </c:ext>
@@ -1464,35 +1140,146 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>#REF!</c:f>
+              <c:f>Sheet5!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                  </c:numRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8DDF-1049-B27E-6905394AD654}"/>
             </c:ext>
@@ -2899,6 +2686,2044 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Count 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$A$5:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$5:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B298-124F-9AF0-736128637E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Count 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$A$5:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B298-124F-9AF0-736128637E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Count 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$A$5:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$D$5:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1865</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B298-124F-9AF0-736128637E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Count 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$A$5:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$E$5:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1718</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1723</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B298-124F-9AF0-736128637E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread Count 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet7!$A$5:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$F$5:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B298-124F-9AF0-736128637E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1919358111"/>
+        <c:axId val="1704072208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1919358111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704072208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1704072208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1919358111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4400000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6800000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7600000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3737</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3745</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3557</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3564</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3552</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$E$3:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27471</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3553</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3543</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3585</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3573</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3567</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D66C-234D-8E42-2A215E5C30C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1332260064"/>
+        <c:axId val="1341947744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1332260064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341947744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1341947744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332260064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2979,6 +4804,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3483,6 +5388,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4049,6 +6960,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D4E1EF-9FB1-317E-682E-2C38EE3A3B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284DB2A0-88CD-16A2-095C-9AF4036F47F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC637F85-08E4-1AE8-8042-3943F82C19CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D1A388-5F94-BF46-ADAC-FE5F33819CB7}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
@@ -4381,18 +7374,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1"/>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>267</v>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -4406,12 +7399,12 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>50000</v>
       </c>
       <c r="B4" s="2">
@@ -4426,12 +7419,12 @@
       <c r="E4" s="2">
         <v>372</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>100000</v>
       </c>
       <c r="B5" s="2">
@@ -4446,12 +7439,12 @@
       <c r="E5" s="2">
         <v>284</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>150000</v>
       </c>
       <c r="B6" s="2">
@@ -4466,12 +7459,12 @@
       <c r="E6" s="2">
         <v>279</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>200000</v>
       </c>
       <c r="B7" s="2">
@@ -4486,12 +7479,12 @@
       <c r="E7" s="2">
         <v>278</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>250000</v>
       </c>
       <c r="B8" s="2">
@@ -4506,12 +7499,12 @@
       <c r="E8" s="2">
         <v>281</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>300000</v>
       </c>
       <c r="B9" s="2">
@@ -4526,12 +7519,12 @@
       <c r="E9" s="2">
         <v>298</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>350000</v>
       </c>
       <c r="B10" s="2">
@@ -4546,12 +7539,12 @@
       <c r="E10" s="2">
         <v>297</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>400000</v>
       </c>
       <c r="B11" s="2">
@@ -4566,12 +7559,12 @@
       <c r="E11" s="2">
         <v>298</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>450000</v>
       </c>
       <c r="B12" s="2">
@@ -4586,12 +7579,12 @@
       <c r="E12" s="2">
         <v>303</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>500000</v>
       </c>
       <c r="B13" s="2">
@@ -4606,12 +7599,12 @@
       <c r="E13" s="2">
         <v>298</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>550000</v>
       </c>
       <c r="B14" s="2">
@@ -4626,12 +7619,12 @@
       <c r="E14" s="2">
         <v>399</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9">
+      <c r="A15" s="6">
         <v>600000</v>
       </c>
       <c r="B15" s="2">
@@ -4646,12 +7639,12 @@
       <c r="E15" s="2">
         <v>400</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>650000</v>
       </c>
       <c r="B16" s="2">
@@ -4666,12 +7659,12 @@
       <c r="E16" s="2">
         <v>401</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>700000</v>
       </c>
       <c r="B17" s="2">
@@ -4686,12 +7679,12 @@
       <c r="E17" s="2">
         <v>406</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>750000</v>
       </c>
       <c r="B18" s="2">
@@ -4706,12 +7699,12 @@
       <c r="E18" s="2">
         <v>406</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>800000</v>
       </c>
       <c r="B19" s="2">
@@ -4726,12 +7719,12 @@
       <c r="E19" s="2">
         <v>423</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>850000</v>
       </c>
       <c r="B20" s="2">
@@ -4746,12 +7739,12 @@
       <c r="E20" s="2">
         <v>401</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>900000</v>
       </c>
       <c r="B21" s="2">
@@ -4766,12 +7759,12 @@
       <c r="E21" s="2">
         <v>400</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>950000</v>
       </c>
       <c r="B22" s="2">
@@ -4786,93 +7779,93 @@
       <c r="E22" s="2">
         <v>399</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>1000000</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>644</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>399</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>398</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>399</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
+      <c r="A31" s="11"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14"/>
+      <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="14"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="14"/>
+      <c r="A35" s="11"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="11"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="14"/>
+      <c r="A37" s="11"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="14"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="14"/>
+      <c r="A39" s="11"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="14"/>
+      <c r="A40" s="11"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="14"/>
+      <c r="A41" s="11"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="14"/>
+      <c r="A42" s="11"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="14"/>
+      <c r="A43" s="11"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="11"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="11"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="14"/>
+      <c r="A46" s="11"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14"/>
+      <c r="A47" s="11"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14"/>
+      <c r="A48" s="11"/>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4889,8 +7882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F6FE7-EEBC-3B42-9175-D630116BDD39}">
   <dimension ref="A3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4906,18 +7899,18 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>267</v>
+      <c r="A6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -4931,7 +7924,7 @@
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5346,426 +8339,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B723C9-A77A-5D4A-B0D8-EB13881CFAEA}">
-  <dimension ref="A3:F24"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F24"/>
+      <selection activeCell="A5" sqref="A5:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
+    <row r="2" spans="1:6" ht="17" thickBot="1"/>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>200000</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
+      <c r="B5">
+        <v>1702</v>
+      </c>
+      <c r="C5">
+        <v>1647</v>
+      </c>
+      <c r="D5">
+        <v>1506</v>
+      </c>
+      <c r="E5">
+        <v>1575</v>
+      </c>
+      <c r="F5">
+        <v>1515</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>400000</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
+      <c r="B6">
+        <v>1594</v>
+      </c>
+      <c r="C6">
+        <v>1438</v>
+      </c>
+      <c r="D6">
+        <v>1254</v>
+      </c>
+      <c r="E6">
+        <v>1150</v>
+      </c>
+      <c r="F6">
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>600000</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="B7">
+        <v>2040</v>
+      </c>
+      <c r="C7">
+        <v>1584</v>
+      </c>
+      <c r="D7">
+        <v>1312</v>
+      </c>
+      <c r="E7">
+        <v>1125</v>
+      </c>
+      <c r="F7">
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>800000</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
+      <c r="B8">
+        <v>2025</v>
+      </c>
+      <c r="C8">
+        <v>1643</v>
+      </c>
+      <c r="D8">
+        <v>1299</v>
+      </c>
+      <c r="E8">
+        <v>1133</v>
+      </c>
+      <c r="F8">
+        <v>1111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>1000000</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>2048</v>
+      </c>
+      <c r="C9">
+        <v>1607</v>
+      </c>
+      <c r="D9">
+        <v>1298</v>
+      </c>
+      <c r="E9">
+        <v>1119</v>
+      </c>
+      <c r="F9">
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>1200000</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
+      <c r="B10">
+        <v>2555</v>
+      </c>
+      <c r="C10">
+        <v>1799</v>
+      </c>
+      <c r="D10">
+        <v>1249</v>
+      </c>
+      <c r="E10">
+        <v>1249</v>
+      </c>
+      <c r="F10">
+        <v>1281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>1400000</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>93</v>
+      <c r="B11">
+        <v>2717</v>
+      </c>
+      <c r="C11">
+        <v>1800</v>
+      </c>
+      <c r="D11">
+        <v>1257</v>
+      </c>
+      <c r="E11">
+        <v>1246</v>
+      </c>
+      <c r="F11">
+        <v>1256</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>1600000</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
+      <c r="B12">
+        <v>2658</v>
+      </c>
+      <c r="C12">
+        <v>1786</v>
+      </c>
+      <c r="D12">
+        <v>1248</v>
+      </c>
+      <c r="E12">
+        <v>1249</v>
+      </c>
+      <c r="F12">
+        <v>1248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>1800000</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
+      <c r="B13">
+        <v>2590</v>
+      </c>
+      <c r="C13">
+        <v>1784</v>
+      </c>
+      <c r="D13">
+        <v>1249</v>
+      </c>
+      <c r="E13">
+        <v>1245</v>
+      </c>
+      <c r="F13">
+        <v>1245</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>2000000</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
+      <c r="B14">
+        <v>2617</v>
+      </c>
+      <c r="C14">
+        <v>1824</v>
+      </c>
+      <c r="D14">
+        <v>1253</v>
+      </c>
+      <c r="E14">
+        <v>1255</v>
+      </c>
+      <c r="F14">
+        <v>1248</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>2200000</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
+      <c r="B15">
+        <v>2825</v>
+      </c>
+      <c r="C15">
+        <v>1725</v>
+      </c>
+      <c r="D15">
+        <v>1731</v>
+      </c>
+      <c r="E15">
+        <v>1736</v>
+      </c>
+      <c r="F15">
+        <v>1711</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>2400000</v>
       </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
+      <c r="B16">
+        <v>2814</v>
+      </c>
+      <c r="C16">
+        <v>1722</v>
+      </c>
+      <c r="D16">
+        <v>1722</v>
+      </c>
+      <c r="E16">
+        <v>1874</v>
+      </c>
+      <c r="F16">
+        <v>1725</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
         <v>2600000</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
+      <c r="B17">
+        <v>2797</v>
+      </c>
+      <c r="C17">
+        <v>1720</v>
+      </c>
+      <c r="D17">
+        <v>1742</v>
+      </c>
+      <c r="E17">
+        <v>1713</v>
+      </c>
+      <c r="F17">
+        <v>1721</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>2800000</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
+      <c r="B18">
+        <v>2798</v>
+      </c>
+      <c r="C18">
+        <v>1713</v>
+      </c>
+      <c r="D18">
+        <v>1723</v>
+      </c>
+      <c r="E18">
+        <v>1726</v>
+      </c>
+      <c r="F18">
+        <v>1721</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
         <v>3000000</v>
       </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
+      <c r="B19">
+        <v>2794</v>
+      </c>
+      <c r="C19">
+        <v>1757</v>
+      </c>
+      <c r="D19">
+        <v>1865</v>
+      </c>
+      <c r="E19">
+        <v>1721</v>
+      </c>
+      <c r="F19">
+        <v>1716</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>3200000</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
+      <c r="B20">
+        <v>2801</v>
+      </c>
+      <c r="C20">
+        <v>1724</v>
+      </c>
+      <c r="D20">
+        <v>1718</v>
+      </c>
+      <c r="E20">
+        <v>1718</v>
+      </c>
+      <c r="F20">
+        <v>1732</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>3400000</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
+      <c r="B21">
+        <v>2806</v>
+      </c>
+      <c r="C21">
+        <v>1724</v>
+      </c>
+      <c r="D21">
+        <v>1721</v>
+      </c>
+      <c r="E21">
+        <v>1734</v>
+      </c>
+      <c r="F21">
+        <v>1719</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
         <v>3600000</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
+      <c r="B22">
+        <v>2824</v>
+      </c>
+      <c r="C22">
+        <v>1721</v>
+      </c>
+      <c r="D22">
+        <v>1721</v>
+      </c>
+      <c r="E22">
+        <v>1715</v>
+      </c>
+      <c r="F22">
+        <v>1731</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
         <v>3800000</v>
       </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
+      <c r="B23">
+        <v>2789</v>
+      </c>
+      <c r="C23">
+        <v>1721</v>
+      </c>
+      <c r="D23">
+        <v>1722</v>
+      </c>
+      <c r="E23">
+        <v>1723</v>
+      </c>
+      <c r="F23">
+        <v>1728</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
         <v>4000000</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
+      <c r="B24">
+        <v>2794</v>
+      </c>
+      <c r="C24">
+        <v>1718</v>
+      </c>
+      <c r="D24">
+        <v>1730</v>
+      </c>
+      <c r="E24">
+        <v>1723</v>
+      </c>
+      <c r="F24">
+        <v>1719</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5773,15 +8791,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF126CC-BA22-0444-9322-BB2E9439883D}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5793,404 +8811,405 @@
       <c r="A3">
         <v>400000</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>161</v>
+      <c r="B3">
+        <v>3354</v>
+      </c>
+      <c r="C3">
+        <v>3268</v>
+      </c>
+      <c r="D3">
+        <v>3504</v>
+      </c>
+      <c r="E3">
+        <v>3033</v>
+      </c>
+      <c r="F3">
+        <v>3091</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>800000</v>
       </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>162</v>
+      <c r="B4">
+        <v>3303</v>
+      </c>
+      <c r="C4">
+        <v>2940</v>
+      </c>
+      <c r="D4">
+        <v>2555</v>
+      </c>
+      <c r="E4">
+        <v>2354</v>
+      </c>
+      <c r="F4">
+        <v>2461</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
         <v>1200000</v>
       </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>163</v>
+      <c r="B5">
+        <v>4283</v>
+      </c>
+      <c r="C5">
+        <v>3265</v>
+      </c>
+      <c r="D5">
+        <v>2693</v>
+      </c>
+      <c r="E5">
+        <v>2259</v>
+      </c>
+      <c r="F5">
+        <v>2308</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>1600000</v>
       </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>164</v>
+      <c r="B6">
+        <v>4136</v>
+      </c>
+      <c r="C6">
+        <v>3245</v>
+      </c>
+      <c r="D6">
+        <v>2692</v>
+      </c>
+      <c r="E6">
+        <v>2247</v>
+      </c>
+      <c r="F6">
+        <v>2335</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>2000000</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>165</v>
+      <c r="B7">
+        <v>4210</v>
+      </c>
+      <c r="C7">
+        <v>3344</v>
+      </c>
+      <c r="D7">
+        <v>2699</v>
+      </c>
+      <c r="E7">
+        <v>2895</v>
+      </c>
+      <c r="F7">
+        <v>2320</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>2400000</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>166</v>
+      <c r="B8">
+        <v>5408</v>
+      </c>
+      <c r="C8">
+        <v>3742</v>
+      </c>
+      <c r="D8">
+        <v>2555</v>
+      </c>
+      <c r="E8">
+        <v>4015</v>
+      </c>
+      <c r="F8">
+        <v>2572</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>2800000</v>
       </c>
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>167</v>
+      <c r="B9">
+        <v>5318</v>
+      </c>
+      <c r="C9">
+        <v>3699</v>
+      </c>
+      <c r="D9">
+        <v>2555</v>
+      </c>
+      <c r="E9">
+        <v>27471</v>
+      </c>
+      <c r="F9">
+        <v>2560</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>3200000</v>
       </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
+      <c r="B10">
+        <v>5422</v>
+      </c>
+      <c r="C10">
+        <v>3755</v>
+      </c>
+      <c r="D10">
+        <v>2559</v>
+      </c>
+      <c r="E10">
+        <v>3591</v>
+      </c>
+      <c r="F10">
+        <v>2555</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>3600000</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
+      <c r="B11">
+        <v>5522</v>
+      </c>
+      <c r="C11">
+        <v>3737</v>
+      </c>
+      <c r="D11">
+        <v>2554</v>
+      </c>
+      <c r="E11">
+        <v>3207</v>
+      </c>
+      <c r="F11">
+        <v>2612</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>4000000</v>
       </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
+      <c r="B12">
+        <v>4989</v>
+      </c>
+      <c r="C12">
+        <v>3745</v>
+      </c>
+      <c r="D12">
+        <v>2557</v>
+      </c>
+      <c r="E12">
+        <v>3020</v>
+      </c>
+      <c r="F12">
+        <v>2553</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>4400000</v>
       </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
+      <c r="B13">
+        <v>5865</v>
+      </c>
+      <c r="C13">
+        <v>3558</v>
+      </c>
+      <c r="D13">
+        <v>3545</v>
+      </c>
+      <c r="E13">
+        <v>4625</v>
+      </c>
+      <c r="F13">
+        <v>3543</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>4800000</v>
       </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>169</v>
+      <c r="B14">
+        <v>5821</v>
+      </c>
+      <c r="C14">
+        <v>3550</v>
+      </c>
+      <c r="D14">
+        <v>3544</v>
+      </c>
+      <c r="E14">
+        <v>4117</v>
+      </c>
+      <c r="F14">
+        <v>3547</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>5200000</v>
       </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>170</v>
+      <c r="B15">
+        <v>5820</v>
+      </c>
+      <c r="C15">
+        <v>3545</v>
+      </c>
+      <c r="D15">
+        <v>3545</v>
+      </c>
+      <c r="E15">
+        <v>3617</v>
+      </c>
+      <c r="F15">
+        <v>3585</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>5600000</v>
       </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" t="s">
-        <v>171</v>
+      <c r="B16">
+        <v>5809</v>
+      </c>
+      <c r="C16">
+        <v>3549</v>
+      </c>
+      <c r="D16">
+        <v>3540</v>
+      </c>
+      <c r="E16">
+        <v>3542</v>
+      </c>
+      <c r="F16">
+        <v>3569</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
         <v>6000000</v>
       </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>172</v>
+      <c r="B17">
+        <v>5811</v>
+      </c>
+      <c r="C17">
+        <v>3551</v>
+      </c>
+      <c r="D17">
+        <v>3564</v>
+      </c>
+      <c r="E17">
+        <v>3549</v>
+      </c>
+      <c r="F17">
+        <v>3593</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>6400000</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" t="s">
-        <v>173</v>
+      <c r="B18">
+        <v>5846</v>
+      </c>
+      <c r="C18">
+        <v>3532</v>
+      </c>
+      <c r="D18">
+        <v>3530</v>
+      </c>
+      <c r="E18">
+        <v>3544</v>
+      </c>
+      <c r="F18">
+        <v>3573</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
         <v>6800000</v>
       </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" t="s">
-        <v>174</v>
+      <c r="B19">
+        <v>5821</v>
+      </c>
+      <c r="C19">
+        <v>3554</v>
+      </c>
+      <c r="D19">
+        <v>3552</v>
+      </c>
+      <c r="E19">
+        <v>3553</v>
+      </c>
+      <c r="F19">
+        <v>3548</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>7200000</v>
       </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" t="s">
-        <v>31</v>
+      <c r="B20">
+        <v>5809</v>
+      </c>
+      <c r="C20">
+        <v>3557</v>
+      </c>
+      <c r="D20">
+        <v>3545</v>
+      </c>
+      <c r="E20">
+        <v>3543</v>
+      </c>
+      <c r="F20">
+        <v>3567</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>7600000</v>
       </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" t="s">
-        <v>127</v>
+      <c r="B21">
+        <v>5813</v>
+      </c>
+      <c r="C21">
+        <v>3540</v>
+      </c>
+      <c r="D21">
+        <v>3566</v>
+      </c>
+      <c r="E21">
+        <v>3540</v>
+      </c>
+      <c r="F21">
+        <v>3549</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
         <v>8000000</v>
       </c>
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
+      <c r="B22">
+        <v>5803</v>
+      </c>
+      <c r="C22">
+        <v>3554</v>
+      </c>
+      <c r="D22">
+        <v>3563</v>
+      </c>
+      <c r="E22">
+        <v>3555</v>
+      </c>
+      <c r="F22">
+        <v>3564</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6199,14 +9218,14 @@
   <dimension ref="A4:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B6" sqref="B6:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6218,400 +9237,400 @@
       <c r="A6">
         <v>800000</v>
       </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
+      <c r="B6">
+        <v>6752</v>
+      </c>
+      <c r="C6">
+        <v>7151</v>
+      </c>
+      <c r="D6">
+        <v>6039</v>
+      </c>
+      <c r="E6">
+        <v>6001</v>
+      </c>
+      <c r="F6">
+        <v>6078</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>1600000</v>
       </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" t="s">
-        <v>251</v>
+      <c r="B7">
+        <v>6854</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>5200</v>
+      </c>
+      <c r="E7">
+        <v>4799</v>
+      </c>
+      <c r="F7">
+        <v>5048</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>2400000</v>
       </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" t="s">
-        <v>252</v>
+      <c r="B8">
+        <v>8714</v>
+      </c>
+      <c r="C8">
+        <v>6891</v>
+      </c>
+      <c r="D8">
+        <v>5734</v>
+      </c>
+      <c r="E8">
+        <v>4542</v>
+      </c>
+      <c r="F8">
+        <v>4773</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>3200000</v>
       </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" t="s">
-        <v>253</v>
+      <c r="B9">
+        <v>8607</v>
+      </c>
+      <c r="C9">
+        <v>6701</v>
+      </c>
+      <c r="D9">
+        <v>5514</v>
+      </c>
+      <c r="E9">
+        <v>4617</v>
+      </c>
+      <c r="F9">
+        <v>4641</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
         <v>4000000</v>
       </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" t="s">
-        <v>254</v>
+      <c r="B10">
+        <v>8701</v>
+      </c>
+      <c r="C10">
+        <v>6769</v>
+      </c>
+      <c r="D10">
+        <v>5517</v>
+      </c>
+      <c r="E10">
+        <v>4659</v>
+      </c>
+      <c r="F10">
+        <v>4635</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>4800000</v>
       </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" t="s">
-        <v>255</v>
+      <c r="B11">
+        <v>11533</v>
+      </c>
+      <c r="C11">
+        <v>7710</v>
+      </c>
+      <c r="D11">
+        <v>5213</v>
+      </c>
+      <c r="E11">
+        <v>5366</v>
+      </c>
+      <c r="F11">
+        <v>5380</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
         <v>5600000</v>
       </c>
-      <c r="B12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" t="s">
-        <v>256</v>
+      <c r="B12">
+        <v>11729</v>
+      </c>
+      <c r="C12">
+        <v>7576</v>
+      </c>
+      <c r="D12">
+        <v>5238</v>
+      </c>
+      <c r="E12">
+        <v>5261</v>
+      </c>
+      <c r="F12">
+        <v>5342</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
         <v>6400000</v>
       </c>
-      <c r="B13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" t="s">
-        <v>257</v>
+      <c r="B13">
+        <v>11758</v>
+      </c>
+      <c r="C13">
+        <v>7655</v>
+      </c>
+      <c r="D13">
+        <v>5226</v>
+      </c>
+      <c r="E13">
+        <v>5260</v>
+      </c>
+      <c r="F13">
+        <v>5545</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
         <v>7200000</v>
       </c>
-      <c r="B14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" t="s">
-        <v>258</v>
+      <c r="B14">
+        <v>11256</v>
+      </c>
+      <c r="C14">
+        <v>7614</v>
+      </c>
+      <c r="D14">
+        <v>5259</v>
+      </c>
+      <c r="E14">
+        <v>5348</v>
+      </c>
+      <c r="F14">
+        <v>5523</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>8000000</v>
       </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" t="s">
-        <v>259</v>
+      <c r="B15">
+        <v>11116</v>
+      </c>
+      <c r="C15">
+        <v>7602</v>
+      </c>
+      <c r="D15">
+        <v>5236</v>
+      </c>
+      <c r="E15">
+        <v>5266</v>
+      </c>
+      <c r="F15">
+        <v>5364</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>8800000</v>
       </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
+      <c r="B16">
+        <v>12374</v>
+      </c>
+      <c r="C16">
+        <v>7415</v>
+      </c>
+      <c r="D16">
+        <v>7479</v>
+      </c>
+      <c r="E16">
+        <v>7527</v>
+      </c>
+      <c r="F16">
+        <v>7559</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
         <v>9600000</v>
       </c>
-      <c r="B17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" t="s">
-        <v>260</v>
+      <c r="B17">
+        <v>12204</v>
+      </c>
+      <c r="C17">
+        <v>7339</v>
+      </c>
+      <c r="D17">
+        <v>7620</v>
+      </c>
+      <c r="E17">
+        <v>7519</v>
+      </c>
+      <c r="F17">
+        <v>7528</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>10400000</v>
       </c>
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
+      <c r="B18">
+        <v>12546</v>
+      </c>
+      <c r="C18">
+        <v>7485</v>
+      </c>
+      <c r="D18">
+        <v>7529</v>
+      </c>
+      <c r="E18">
+        <v>7817</v>
+      </c>
+      <c r="F18">
+        <v>7570</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
         <v>11200000</v>
       </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" t="s">
-        <v>261</v>
+      <c r="B19">
+        <v>12482</v>
+      </c>
+      <c r="C19">
+        <v>7433</v>
+      </c>
+      <c r="D19">
+        <v>7347</v>
+      </c>
+      <c r="E19">
+        <v>7727</v>
+      </c>
+      <c r="F19">
+        <v>7609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>12000000</v>
       </c>
-      <c r="B20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" t="s">
-        <v>262</v>
+      <c r="B20">
+        <v>12359</v>
+      </c>
+      <c r="C20">
+        <v>7432</v>
+      </c>
+      <c r="D20">
+        <v>7507</v>
+      </c>
+      <c r="E20">
+        <v>7426</v>
+      </c>
+      <c r="F20">
+        <v>7363</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>12800000</v>
       </c>
-      <c r="B21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" t="s">
-        <v>263</v>
+      <c r="B21">
+        <v>12357</v>
+      </c>
+      <c r="C21">
+        <v>7348</v>
+      </c>
+      <c r="D21">
+        <v>7474</v>
+      </c>
+      <c r="E21">
+        <v>7660</v>
+      </c>
+      <c r="F21">
+        <v>7284</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
         <v>13600000</v>
       </c>
-      <c r="B22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F22" t="s">
-        <v>264</v>
+      <c r="B22">
+        <v>12175</v>
+      </c>
+      <c r="C22">
+        <v>7428</v>
+      </c>
+      <c r="D22">
+        <v>7576</v>
+      </c>
+      <c r="E22">
+        <v>7713</v>
+      </c>
+      <c r="F22">
+        <v>7571</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
         <v>14400000</v>
       </c>
-      <c r="B23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
+      <c r="B23">
+        <v>12460</v>
+      </c>
+      <c r="C23">
+        <v>7476</v>
+      </c>
+      <c r="D23">
+        <v>7320</v>
+      </c>
+      <c r="E23">
+        <v>10517</v>
+      </c>
+      <c r="F23">
+        <v>7545</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
         <v>15200000</v>
       </c>
-      <c r="B24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" t="s">
-        <v>265</v>
+      <c r="B24">
+        <v>12140</v>
+      </c>
+      <c r="C24">
+        <v>7323</v>
+      </c>
+      <c r="D24">
+        <v>7713</v>
+      </c>
+      <c r="E24">
+        <v>10144</v>
+      </c>
+      <c r="F24">
+        <v>7626</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
         <v>16000000</v>
       </c>
-      <c r="B25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25" t="s">
-        <v>266</v>
+      <c r="B25">
+        <v>12234</v>
+      </c>
+      <c r="C25">
+        <v>7899</v>
+      </c>
+      <c r="D25">
+        <v>7903</v>
+      </c>
+      <c r="E25">
+        <v>7951</v>
+      </c>
+      <c r="F25">
+        <v>7506</v>
       </c>
     </row>
   </sheetData>

--- a/Conclusion Assignment 5/Observation 5 excel.xlsx
+++ b/Conclusion Assignment 5/Observation 5 excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyalgudhka/PSA5/INFO6205/Conclusion Assignment 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C773C9-2770-4949-91E4-749AEC949D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F7D45-23C3-FD47-B1F2-303771FE5CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{8B134B98-9BE9-AD47-8E75-FF0654A59983}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="4" xr2:uid="{8B134B98-9BE9-AD47-8E75-FF0654A59983}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -3905,111 +3905,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet8!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2800000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3200000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3600000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4400000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4800000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5200000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5600000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6400000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6800000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7200000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7600000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D66C-234D-8E42-2A215E5C30C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:tx>
+            <c:v>Thread Count 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4034,6 +3934,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet8!$B$3:$B$22</c:f>
@@ -4112,7 +4081,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Thread Count 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4137,6 +4109,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet8!$C$3:$C$22</c:f>
@@ -4215,7 +4256,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Thread Count 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4240,6 +4284,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet8!$D$3:$D$22</c:f>
@@ -4318,7 +4431,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Thread Count 8</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4343,6 +4459,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet8!$E$3:$E$22</c:f>
@@ -4421,7 +4606,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Thread Count 16</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4446,6 +4634,75 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet8!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5813</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet8!$F$3:$F$22</c:f>
@@ -4542,6 +4799,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4638,6 +4896,1134 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1332260064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Thread Count 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$A$6:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$6:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A04A-2F43-86D5-BCA80B9F3F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Thread Count 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$A$6:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7710</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7485</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7433</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A04A-2F43-86D5-BCA80B9F3F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Thread Count 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$A$6:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$D$6:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7576</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7713</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A04A-2F43-86D5-BCA80B9F3F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Thread Count 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$A$6:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7519</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7817</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7727</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7660</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10517</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A04A-2F43-86D5-BCA80B9F3F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Thread Count 16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet9!$A$6:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8800000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10400000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12800000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15200000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$F$6:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7528</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7284</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7571</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7626</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A04A-2F43-86D5-BCA80B9F3F51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1704016208"/>
+        <c:axId val="1332675808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1704016208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332675808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1332675808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704016208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4884,6 +6270,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -6394,6 +7820,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7031,6 +8960,47 @@
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC637F85-08E4-1AE8-8042-3943F82C19CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -7041,7 +9011,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC637F85-08E4-1AE8-8042-3943F82C19CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146863D5-42DE-4ABE-9035-992CC22CBEA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8791,7 +10761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF126CC-BA22-0444-9322-BB2E9439883D}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F22"/>
     </sheetView>
   </sheetViews>
@@ -9217,8 +11187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36514CE-26B4-1349-AF2C-3AC4FCD4DE30}">
   <dimension ref="A4:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9635,5 +11605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>